--- a/Student Survey Analysis.xlsx
+++ b/Student Survey Analysis.xlsx
@@ -8,44 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahad Aldoosri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2976F59-8A43-4500-8367-ADFA64D6E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188AB5E-92DA-4B59-A147-3BB3022FE390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40C4D4D5-7797-4992-9912-75942E97AB18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
-    <sheet name="Dashbored" sheetId="9" r:id="rId2"/>
-    <sheet name="students_background_survey" sheetId="2" r:id="rId3"/>
-    <sheet name="kind_of_Role" sheetId="6" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId5"/>
-    <sheet name="Industries" sheetId="8" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId1"/>
+    <sheet name="students_background_survey" sheetId="2" r:id="rId2"/>
+    <sheet name="kind_of_Role" sheetId="6" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId4"/>
+    <sheet name="Industries" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Calculations!$G$51:$L$51</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Book1version1.xlsbstudents_background_survey" hidden="1">students_background_survey[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_students_background_surveyAR" hidden="1">students_background_survey!$A:$R</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Industries!$A$1:$U$49</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">kind_of_Role!$A$1:$H$50</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">students_background_survey!$A$1:$R$49</definedName>
-    <definedName name="Slicer_Experince">#N/A</definedName>
-    <definedName name="Slicer_Industries">#N/A</definedName>
-    <definedName name="Slicer_Skills_Level">#N/A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Calculations!$G$51:$L$51</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Book1version1.xlsbstudents_background_survey1" hidden="1">students_background_survey[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_students_background_surveyAR1" hidden="1">students_background_survey!$A:$R</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">Industries!$A$1:$U$49</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">kind_of_Role!$A$1:$H$50</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">students_background_survey!$A$1:$R$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
-      </x15:slicerCaches>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -135,7 +121,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="students_background_survey 1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1version1.xlsbstudents_background_survey"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1version1.xlsbstudents_background_survey1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -144,7 +130,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_students_background_surveyAR"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_students_background_surveyAR1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -153,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="223">
   <si>
     <t>Timestamp</t>
   </si>
@@ -819,21 +805,6 @@
   </si>
   <si>
     <t>StudentId</t>
-  </si>
-  <si>
-    <t>Total of Students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experienced career </t>
-  </si>
-  <si>
-    <t>Class A</t>
-  </si>
-  <si>
-    <t>Class B</t>
-  </si>
-  <si>
-    <t>Fresh Grade</t>
   </si>
   <si>
     <t>count</t>
@@ -843,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,49 +851,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Candara Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="0"/>
-      <name val="Candara Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Candara Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Candara Light"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,20 +871,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1038,120 +956,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1187,70 +997,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11421,869 +11168,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>163618</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>149614</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80703</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle: Rounded Corners 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65AB93-AF69-42F1-8B77-2E4A7EEB0266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5602721" y="6597117"/>
-          <a:ext cx="7238134" cy="3126827"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>70756</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>120316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538E5553-64A1-4E53-A5DA-AF0F28CFE152}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20797156" y="3029795"/>
-          <a:ext cx="9149444" cy="11549471"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>379325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>405033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>365321</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>89723</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D093AB1F-A351-4664-AD1D-469AB9F3AB5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13070566" y="3295378"/>
-          <a:ext cx="7238134" cy="3126828"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438492</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>424487</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle: Rounded Corners 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884AD1B4-7230-40DC-8F5C-48A18362AE31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13129733" y="6629538"/>
-          <a:ext cx="7238133" cy="3126828"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>301798</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>78078</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>176425</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>153152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle: Rounded Corners 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C4DF99-FE7D-5E07-12AB-5551E7B975BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5740901" y="10089181"/>
-          <a:ext cx="14378903" cy="994730"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Difference between</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Class A and Class B</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40540</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>135133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>26536</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>135133</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle: Rounded Corners 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D3693E-EA99-4037-91C4-3A9B5693FD1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5479643" y="11433754"/>
-          <a:ext cx="7238134" cy="3126827"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>322818</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>156905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>308814</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>156905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Rectangle: Rounded Corners 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CE82BD-7144-499F-8929-6619A870AA31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13014059" y="11455526"/>
-          <a:ext cx="7238134" cy="3126827"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>272181</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>258028</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21589</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="61" name="Skills Level ">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC74F60-362E-48E4-ABF3-2D63FD243640}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Skills Level "/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3338766" y="3869204"/>
-              <a:ext cx="1825799" cy="1226190"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>253596</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>135032</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>239443</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61951</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="63" name="Experince ">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71820BF4-B8FE-4367-99D7-B8346B0BD977}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Experince "/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3320181" y="5208837"/>
-              <a:ext cx="1825799" cy="1785455"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>307013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175339</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Rectangle: Rounded Corners 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B12C70-3495-40AB-8B70-6F370C0ADA42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3444239" y="307013"/>
-          <a:ext cx="18257521" cy="996086"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Students</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="4800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Backgrounds</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="4800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254696</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>243544</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Industries 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07791715-1089-4647-A9CC-1AB469694807}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Industries 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3286309" y="6923118"/>
-              <a:ext cx="1807816" cy="2502936"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Shahad Aldoosri" refreshedDate="45536.704091898151" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B0974577-EAC3-415A-947B-84DFD45B4000}">
   <cacheSource type="external" connectionId="7"/>
@@ -12724,50 +11608,6 @@
     </ext>
   </extLst>
 </queryTable>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Experince" xr10:uid="{A8DA00CD-121D-4BDA-AEDE-C569A9700BDD}" sourceName="Experince">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="9" column="1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Skills_Level" xr10:uid="{705C3B52-5C70-4BD2-97FA-3A2D1994381B}" sourceName="Skills Level">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="8" column="1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Industries" xr10:uid="{1CB3F749-E90F-4ED7-8EEB-CA4FD312AB41}" sourceName="Industries">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="4" column="1"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Experince " xr10:uid="{6355D361-10DE-4845-933C-54EF3F1415D5}" cache="Slicer_Experince" caption="Experince" style="SlicerStyleLight4" rowHeight="247650"/>
-  <slicer name="Skills Level " xr10:uid="{4DDFEA18-91E6-4B18-832A-8AB005B513F3}" cache="Slicer_Skills_Level" caption="Skills Level" style="SlicerStyleLight4" rowHeight="247650"/>
-  <slicer name="Industries 1" xr10:uid="{186625C6-137B-4EAA-8636-2975563DE396}" cache="Slicer_Industries" caption="Industries" rowHeight="247650"/>
-</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13295,7 +12135,7 @@
     <col min="1" max="40" width="8.8984375"/>
     <col min="41" max="41" width="8.8984375" customWidth="1"/>
     <col min="42" max="54" width="8.8984375"/>
-    <col min="55" max="69" width="8.8984375" style="22"/>
+    <col min="55" max="69" width="8.8984375" style="15"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13304,201 +12144,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0733069A-E497-444C-B4D7-6A96F0C85410}">
-  <dimension ref="D1:AX8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:W6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="11" width="8.8984375" style="15"/>
-    <col min="12" max="12" width="8.8984375" style="15" customWidth="1"/>
-    <col min="13" max="14" width="8.8984375" style="15"/>
-    <col min="15" max="15" width="8.8984375" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="8.8984375" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:50" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-    </row>
-    <row r="5" spans="4:50" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:50" ht="46.2" x14ac:dyDescent="0.5">
-      <c r="J6" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-    </row>
-    <row r="7" spans="4:50" ht="60.6" thickBot="1" x14ac:dyDescent="1">
-      <c r="J7" s="26">
-        <f>COUNT(students_background_survey!R:R)</f>
-        <v>48</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="26">
-        <f>COUNTIF(students_background_survey!M:M,"Recent Graduate")</f>
-        <v>42</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="36">
-        <f>COUNTIF(students_background_survey!M:M,"Experienced career switcher")</f>
-        <v>6</v>
-      </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="26">
-        <f>COUNTIF(students_background_survey!B:B,"Cohort 1")</f>
-        <v>22</v>
-      </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="26">
-        <f>COUNTIF(students_background_survey!B:B,"Cohort 2")</f>
-        <v>26</v>
-      </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-    </row>
-    <row r="8" spans="4:50" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AM6:AS6"/>
-    <mergeCell ref="AM7:AS7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E5A83E-C500-4B93-8BAF-B3A256FCDECA}">
   <dimension ref="A1:R49"/>
   <sheetViews>
@@ -16280,7 +14925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FFDAA3-33CD-41AA-BE7C-ABC7723F0E7F}">
   <dimension ref="A1:S50"/>
   <sheetViews>
@@ -17097,7 +15742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE98226-8AD6-4E68-B35F-F641CAD53C4E}">
   <dimension ref="A4:AC41"/>
   <sheetViews>
@@ -17523,7 +16168,7 @@
         <v>216</v>
       </c>
       <c r="Q20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -18088,7 +16733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B054817-87C0-4C87-86AD-C58183627897}">
   <dimension ref="A1:U49"/>
   <sheetViews>
